--- a/Performance_9010.xlsx
+++ b/Performance_9010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing_NB\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3286408F-31C4-4227-856E-42087728BCC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BE4ADE-760E-41C4-8797-A3589D5AA19F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9F16B686-0AA6-4860-931A-4B6DD9D095EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{9F16B686-0AA6-4860-931A-4B6DD9D095EA}"/>
   </bookViews>
   <sheets>
     <sheet name="avg acc" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,57 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -11976,8 +12026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9143A7B1-6C76-4B1B-8DB6-BBFFFBCA1500}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -12338,6 +12388,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:S6">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>B2=MAX(B$2:B$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12348,7 +12403,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B2" sqref="B2:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -12709,6 +12764,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:S6">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>B2=MIN(B$2:B$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12719,7 +12779,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B2" sqref="B2:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -13080,6 +13140,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:S6">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>B2=MIN(B$2:B$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -13090,7 +13155,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B2" sqref="B2:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -13451,6 +13516,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:S6">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>B2=MIN(B$2:B$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -13461,7 +13531,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B2" sqref="B2:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -13822,6 +13892,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:S6">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>B2=MIN(B$2:B$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -13832,7 +13907,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B2" sqref="B2:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -14193,6 +14268,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:S6">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>B2=MIN(B$2:B$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -14202,8 +14282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAAF30F4-4625-4A5F-B850-AEA559C3B4EB}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -14564,6 +14644,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:S6">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>B2=MIN(B$2:B$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
